--- a/珠海藤仓硅胶涂布.xlsx
+++ b/珠海藤仓硅胶涂布.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="520">
   <si>
     <t>序号</t>
   </si>
@@ -1803,6 +1803,10 @@
   </si>
   <si>
     <t>点胶模块输入信号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴2点胶上抬速度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2427,17 +2431,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2445,11 +2449,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -2798,7 +2802,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3311,11 +3315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3339,22 +3343,22 @@
       <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="73" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="73"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="11" t="s">
         <v>97</v>
       </c>
@@ -3372,22 +3376,22 @@
       <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="73" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="13"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -3403,20 +3407,20 @@
       <c r="A4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="15"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3721,7 +3725,7 @@
       <c r="A14" s="40">
         <v>6</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="76" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="32" t="s">
@@ -3758,7 +3762,7 @@
       <c r="A15" s="40">
         <v>7</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="32" t="s">
         <v>136</v>
       </c>
@@ -3791,7 +3795,7 @@
       <c r="A16" s="40">
         <v>8</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="32" t="s">
         <v>138</v>
       </c>
@@ -3824,7 +3828,7 @@
       <c r="A17" s="40">
         <v>9</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="32" t="s">
         <v>81</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="A18" s="40">
         <v>10</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="32" t="s">
         <v>80</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="A19" s="40">
         <v>11</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="32" t="s">
         <v>142</v>
       </c>
@@ -3917,7 +3921,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="40"/>
-      <c r="B20" s="70"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="32" t="s">
         <v>143</v>
       </c>
@@ -3948,7 +3952,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="40"/>
-      <c r="B21" s="70"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="32" t="s">
         <v>146</v>
       </c>
@@ -3977,7 +3981,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="40"/>
-      <c r="B22" s="70"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="32" t="s">
         <v>149</v>
       </c>
@@ -4006,7 +4010,7 @@
       <c r="A23" s="40">
         <v>12</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="32" t="s">
         <v>150</v>
       </c>
@@ -4039,7 +4043,7 @@
       <c r="A24" s="40">
         <v>13</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="76" t="s">
         <v>153</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -4072,7 +4076,7 @@
       <c r="A25" s="40">
         <v>14</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="32" t="s">
         <v>156</v>
       </c>
@@ -4105,7 +4109,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="40"/>
-      <c r="B26" s="70"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="32" t="s">
         <v>159</v>
       </c>
@@ -4134,7 +4138,7 @@
       <c r="A27" s="40">
         <v>15</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="38" t="s">
         <v>160</v>
       </c>
@@ -4200,7 +4204,7 @@
       <c r="A29" s="40">
         <v>17</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="77" t="s">
         <v>166</v>
       </c>
       <c r="C29" s="32" t="s">
@@ -4233,7 +4237,7 @@
       <c r="A30" s="40">
         <v>18</v>
       </c>
-      <c r="B30" s="71"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="32" t="s">
         <v>82</v>
       </c>
@@ -4266,7 +4270,7 @@
       <c r="A31" s="40">
         <v>19</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="76" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -4301,7 +4305,7 @@
       <c r="A32" s="40">
         <v>20</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="32" t="s">
         <v>86</v>
       </c>
@@ -4332,7 +4336,7 @@
       <c r="A33" s="40">
         <v>21</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="32" t="s">
         <v>89</v>
       </c>
@@ -4361,7 +4365,7 @@
       <c r="A34" s="40">
         <v>22</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="32" t="s">
         <v>91</v>
       </c>
@@ -4390,7 +4394,7 @@
       <c r="A35" s="40">
         <v>23</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="32" t="s">
         <v>90</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="A36" s="40">
         <v>24</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="32" t="s">
         <v>173</v>
       </c>
@@ -4448,7 +4452,7 @@
       <c r="A37" s="40">
         <v>25</v>
       </c>
-      <c r="B37" s="70"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="32" t="s">
         <v>174</v>
       </c>
@@ -4477,7 +4481,7 @@
       <c r="A38" s="40">
         <v>26</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="32" t="s">
         <v>175</v>
       </c>
@@ -4510,7 +4514,7 @@
       <c r="A39" s="40">
         <v>27</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="32" t="s">
         <v>178</v>
       </c>
@@ -4543,7 +4547,7 @@
       <c r="A40" s="40">
         <v>28</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="32" t="s">
         <v>179</v>
       </c>
@@ -4576,7 +4580,7 @@
       <c r="A41" s="40">
         <v>29</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="32" t="s">
         <v>180</v>
       </c>
@@ -4609,7 +4613,7 @@
       <c r="A42" s="40">
         <v>30</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="32" t="s">
         <v>182</v>
       </c>
@@ -5309,6 +5313,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:G2"/>
@@ -5316,16 +5330,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -5342,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F75" sqref="F74:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7078,7 +7082,9 @@
       <c r="A69" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
